--- a/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_mech_order.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_mech_order.xlsx
@@ -379,10 +379,10 @@
     <t>activators</t>
   </si>
   <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
+    <t>negative effectors</t>
+  </si>
+  <si>
+    <t>positive effectors</t>
   </si>
   <si>
     <t>allosteric</t>
@@ -455,7 +455,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -481,6 +481,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -536,12 +544,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -565,7 +577,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -698,7 +710,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -844,7 +856,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1067,7 +1079,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1388,49 +1400,49 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>118</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1731,7 +1743,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2668,7 +2680,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3052,7 +3064,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3275,7 +3287,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3372,7 +3384,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3504,7 +3516,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3636,7 +3648,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A1:K1 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3817,7 +3829,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="A1:K1 E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_mech_order.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_check_models/HMP2360_r0_t0_mech_order.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,7 @@
     <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Sheet13" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="126">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -45,7 +46,7 @@
     <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
   </si>
   <si>
-    <t xml:space="preserve">ORACLE</t>
+    <t xml:space="preserve">GRASP</t>
   </si>
   <si>
     <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
@@ -60,6 +61,15 @@
     <t xml:space="preserve">gurobi</t>
   </si>
   <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
@@ -312,34 +322,25 @@
     <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vref_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vref_std</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enzyme/rxn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_LB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_meas2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2 (M)</t>
-  </si>
-  <si>
     <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction/enzyme ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
     <t xml:space="preserve">kinetic mechanism</t>
@@ -507,7 +508,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -520,6 +521,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -530,32 +535,31 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="L2:M17 B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -600,29 +604,29 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -630,15 +634,15 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -646,14 +650,28 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -666,38 +684,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:M17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938105540546311</v>
@@ -711,7 +726,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.948692986021061</v>
@@ -725,7 +740,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.963822080137339</v>
@@ -739,7 +754,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.781513345189378</v>
@@ -753,7 +768,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -767,7 +782,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -781,7 +796,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -795,7 +810,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -809,7 +824,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -823,7 +838,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -837,7 +852,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -851,7 +866,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -865,7 +880,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -889,38 +904,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:M17 A1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.600926593306472</v>
@@ -934,7 +946,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -948,7 +960,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -962,7 +974,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -976,7 +988,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -990,7 +1002,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.897059063218122</v>
@@ -1004,7 +1016,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.879431204670374</v>
@@ -1018,7 +1030,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.851303699101255</v>
@@ -1032,7 +1044,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.913109189061105</v>
@@ -1046,7 +1058,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.965053927008861</v>
@@ -1060,7 +1072,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.622035526990772</v>
@@ -1074,7 +1086,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.799696511562971</v>
@@ -1088,7 +1100,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1102,7 +1114,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1116,7 +1128,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1130,7 +1142,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1144,7 +1156,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.771228436522274</v>
@@ -1158,7 +1170,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.967924985045021</v>
@@ -1172,7 +1184,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.994407168746068</v>
@@ -1186,7 +1198,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.989083174460458</v>
@@ -1210,56 +1222,54 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:M17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>112</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -1268,7 +1278,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>114</v>
@@ -1280,7 +1290,7 @@
         <v>115</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1291,7 +1301,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>116</v>
@@ -1314,7 +1324,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>119</v>
@@ -1329,7 +1339,7 @@
         <v>121</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -1340,7 +1350,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>122</v>
@@ -1354,7 +1364,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>123</v>
@@ -1374,7 +1384,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>116</v>
@@ -1397,7 +1407,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>119</v>
@@ -1412,7 +1422,7 @@
         <v>121</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1423,7 +1433,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>122</v>
@@ -1437,7 +1447,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>122</v>
@@ -1451,7 +1461,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>125</v>
@@ -1465,7 +1475,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>122</v>
@@ -1479,7 +1489,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>122</v>
@@ -1493,7 +1503,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>125</v>
@@ -1516,90 +1526,110 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:M17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1664,7 +1694,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1729,7 +1759,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1794,7 +1824,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1859,7 +1889,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1924,7 +1954,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1989,7 +2019,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2054,7 +2084,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2119,7 +2149,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2184,7 +2214,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2249,7 +2279,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2314,7 +2344,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2379,7 +2409,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2454,39 +2484,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:M17 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2494,10 +2523,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2505,10 +2534,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2516,10 +2545,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2527,10 +2556,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2538,10 +2567,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2549,10 +2578,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2560,10 +2589,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2571,10 +2600,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2582,10 +2611,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2593,10 +2622,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2604,10 +2633,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2615,10 +2644,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2626,10 +2655,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2637,10 +2666,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2648,10 +2677,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2659,10 +2688,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2670,10 +2699,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2681,10 +2710,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2692,10 +2721,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2713,42 +2742,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:M17 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2756,10 +2784,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2767,10 +2795,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2778,10 +2806,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2789,10 +2817,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2800,10 +2828,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2811,10 +2839,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2822,10 +2850,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2833,10 +2861,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2844,10 +2872,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2855,10 +2883,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2866,10 +2894,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2877,10 +2905,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2898,124 +2926,121 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:M17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3030,124 +3055,121 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="L2:M17 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3162,35 +3184,32 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="L2:M17 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3201,7 +3220,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3212,7 +3231,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3223,7 +3242,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3234,7 +3253,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3245,7 +3264,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3256,7 +3275,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3267,7 +3286,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3278,7 +3297,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3289,7 +3308,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3300,7 +3319,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3311,7 +3330,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3322,7 +3341,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3343,35 +3362,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="L2:M17 E17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.000228462011808056</v>
@@ -3382,7 +3398,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3393,7 +3409,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3404,7 +3420,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3415,7 +3431,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3426,7 +3442,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00559675402823174</v>
@@ -3437,7 +3453,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -3448,7 +3464,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00310804602125163</v>
@@ -3459,7 +3475,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0308279171448426</v>
@@ -3470,7 +3486,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00181042853161852</v>
@@ -3481,7 +3497,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>8.28736361429022E-005</v>
@@ -3492,7 +3508,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.00604381725975038</v>
@@ -3503,7 +3519,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3514,7 +3530,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3525,7 +3541,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1E-012</v>
@@ -3536,7 +3552,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3547,7 +3563,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>9.44630572239322E-006</v>
@@ -3558,7 +3574,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5.16846874940607E-006</v>
@@ -3569,7 +3585,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.000856570953217132</v>
@@ -3580,7 +3596,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.00016291524956886</v>
@@ -3601,35 +3617,32 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="L2:M17 D1"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-81.4547774583559</v>
@@ -3640,7 +3653,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>18.5183721041727</v>
@@ -3651,7 +3664,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.431738943043251</v>
@@ -3662,7 +3675,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.567354685137039</v>
@@ -3673,7 +3686,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>85.3794767878033</v>
@@ -3684,7 +3697,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.103545682502924</v>
